--- a/src/tehtava3/tehtävä3 laskuri.xlsx
+++ b/src/tehtava3/tehtävä3 laskuri.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Koulu\vuosi 2\jakso4\Tietorakenteet ja algoritmit\Tietorakenteet\src\tehtava3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Koulu\vuosi 2\jakso4\Tietorakenteet ja algoritmit\tehtava3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D69952E-10CB-4681-AB26-FB3AB326E229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42B814CF-3D8A-46CB-B6E9-A32D5E321CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4904" yWindow="1138" windowWidth="18932" windowHeight="11147" xr2:uid="{B2DB7602-68F3-4F04-B1E5-1BC425098D26}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Valintalajittelu</t>
   </si>
@@ -44,17 +44,36 @@
     <t>Pikalajittelu</t>
   </si>
   <si>
-    <t>lukujenmäärä</t>
+    <t>Vertailujen määrä</t>
+  </si>
+  <si>
+    <t>Kuva1. Lomituslajittelu ja Pikalajittelu näkyy alareunassa päällekkäin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuva2. Lomituslajittelu vaatii enemmän vertailumääriä kuin Pikalajittelu </t>
+  </si>
+  <si>
+    <t>Molemmat lajittelutavat ovat silti huomattavasti tehokkaampia kuin Valintalajittelu</t>
+  </si>
+  <si>
+    <t>lukujen määrä jotka lajitellaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,12 +117,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -190,7 +219,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$D$4:$D$7</c:f>
+              <c:f>Taul1!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -263,7 +292,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$G$4:$G$7</c:f>
+              <c:f>Taul1!$H$4:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -336,7 +365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$J$4:$J$7</c:f>
+              <c:f>Taul1!$K$4:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -600,7 +629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$G$4:$G$9</c:f>
+              <c:f>Taul1!$H$4:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -679,7 +708,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$J$4:$J$9</c:f>
+              <c:f>Taul1!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1999,15 +2028,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>89522</xdr:colOff>
+      <xdr:colOff>121494</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121493</xdr:rowOff>
+      <xdr:rowOff>169451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>409241</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>159860</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>153466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2035,15 +2064,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>131084</xdr:rowOff>
+      <xdr:colOff>44761</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>517948</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530735</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>172650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2368,119 +2397,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83006F9-908D-4656-8578-315BF7DECBB6}">
-  <dimension ref="A3:J9"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="35.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="K3" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>25010001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>267515</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>129202</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>100020001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>574947</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>256884</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>15000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>225030001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>896164</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>435353</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>20000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>400040001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1229646</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>577862</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>25000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>625050001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1569342</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>730763</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>30000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>900060001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1912797</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>869631</v>
       </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
